--- a/manuscript/submission1/refs.xlsx
+++ b/manuscript/submission1/refs.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatadiaz/Documents/GitHub/squareone/manuscript/submission1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815E1C69-48DC-4547-947B-D50C75FB40EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA69575-419D-7A45-AEAC-8AFC735C55F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="0" windowWidth="19000" windowHeight="21600" xr2:uid="{983DB963-3FD3-1B43-9D6B-86058770FEB1}"/>
+    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{983DB963-3FD3-1B43-9D6B-86058770FEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$62</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$E$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="37">
   <si>
     <t>Authors</t>
   </si>
@@ -496,15 +500,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4457A603-D775-614A-A87D-169C553B2273}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E33" sqref="E2:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,256 +525,457 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -776,8 +985,14 @@
       <c r="D33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -785,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -793,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -801,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -809,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -817,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -825,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -833,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -841,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -849,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -857,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -865,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -873,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -881,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -889,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>20</v>
       </c>
